--- a/ClosedXML_Tests/Resource/Examples/Misc/SheetProtection.xlsx
+++ b/ClosedXML_Tests/Resource/Examples/Misc/SheetProtection.xlsx
@@ -103,47 +103,47 @@
     </x:border>
   </x:borders>
   <x:cellStyleXfs count="6">
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="1"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="0" hidden="1"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="0" hidden="0"/>
     </x:xf>
   </x:cellStyleXfs>
   <x:cellXfs count="6">
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="1"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="0" hidden="1"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="0" hidden="0"/>
     </x:xf>
